--- a/biology/Zoologie/Euselasia_arbas/Euselasia_arbas.xlsx
+++ b/biology/Zoologie/Euselasia_arbas/Euselasia_arbas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia arbas est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Euselasia.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euselasia arbas a été décrit par Caspar Stoll en 1781 sous le nom de Papilio arbas[1]
-Nom vernaculaire
-Euselasia arbas se nomme en anglais Arbas Euselasia[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia arbas a été décrit par Caspar Stoll en 1781 sous le nom de Papilio arbas
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euselasia arbas est de couleur noire à suffusion cuivrée.
-L'autre face est de couleur orange avec la partie basale séparée de la partie distale par une ligne orange vif. Aux postérieures la ligne submarginale de points noirs cerclés de blanc est centrée par un très gros ocelle noir.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia arbas se nomme en anglais Arbas Euselasia
 </t>
         </is>
       </c>
@@ -573,12 +590,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est peu connue.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia arbas est de couleur noire à suffusion cuivrée.
+L'autre face est de couleur orange avec la partie basale séparée de la partie distale par une ligne orange vif. Aux postérieures la ligne submarginale de points noirs cerclés de blanc est centrée par un très gros ocelle noir.
 </t>
         </is>
       </c>
@@ -604,15 +624,85 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est peu connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euselasia_arbas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_arbas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Euselasia arbas est présent en Guyane, Guyana, au Surinam et en Colombie[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia arbas est présent en Guyane, Guyana, au Surinam et en Colombie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euselasia_arbas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_arbas</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
